--- a/1.approval-process/1.business_process_automation/1.business_process_automation.xlsx
+++ b/1.approval-process/1.business_process_automation/1.business_process_automation.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-trailhead\1.approval-process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/salesforce-trailhead/1.approval-process/1.business_process_automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08D2273-89CF-4266-84DB-0BC99D3CC275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614F9B7C-A948-8C46-9EE3-0299DCEBF23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32780" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Build an Approval Process" sheetId="2" r:id="rId2"/>
+    <sheet name="Build an Approval Process" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -183,187 +182,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>27114</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF05A5F-FC14-5327-1D9E-0ACB60961E2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="717176" y="504266"/>
-          <a:ext cx="11172265" cy="5618848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>358589</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>142141</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AA982A-194A-E7A7-AFB3-343210907322}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="728383" y="6454589"/>
-          <a:ext cx="11127441" cy="5498552"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>57638</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6BD00F-D34B-B934-95BE-6E24E30BCC25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="717176" y="12091148"/>
-          <a:ext cx="10936942" cy="5492490"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>187127</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6E0B38-5E8A-37E9-69FD-0BC97D310CE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="724380" y="17884588"/>
-          <a:ext cx="11181870" cy="5162539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3218,36 +3036,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97D61AD-A9E6-470B-9ECE-79BEF58B580D}">
   <dimension ref="B4:T942"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A926" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="S959" sqref="S959"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3268,623 +3071,623 @@
       <c r="S67" s="3"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="T68" s="6"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="T69" s="6"/>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="T70" s="6"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="T71" s="6"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="T72" s="6"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="T73" s="6"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="T74" s="6"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="T75" s="6"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="T76" s="6"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="T77" s="6"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="T78" s="6"/>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="T79" s="6"/>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="T80" s="6"/>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="T81" s="6"/>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="T82" s="6"/>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="T83" s="6"/>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="T84" s="6"/>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="T85" s="6"/>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="T86" s="6"/>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="T87" s="6"/>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="T88" s="6"/>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="T89" s="6"/>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="T90" s="6"/>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="T91" s="6"/>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="T92" s="6"/>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="T93" s="6"/>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="T94" s="6"/>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="T95" s="6"/>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="T96" s="6"/>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
       <c r="T97" s="6"/>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="5"/>
       <c r="T98" s="6"/>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="T99" s="6"/>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
       <c r="T100" s="6"/>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B101" s="5"/>
       <c r="T101" s="6"/>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="T102" s="6"/>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B103" s="5"/>
       <c r="T103" s="6"/>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B104" s="5"/>
       <c r="T104" s="6"/>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B105" s="5"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B106" s="5"/>
       <c r="T106" s="6"/>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="T107" s="6"/>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="T108" s="6"/>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B109" s="5"/>
       <c r="T109" s="6"/>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B110" s="5"/>
       <c r="T110" s="6"/>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="T111" s="6"/>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B112" s="5"/>
       <c r="T112" s="6"/>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
       <c r="T113" s="6"/>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
       <c r="T114" s="6"/>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B115" s="5"/>
       <c r="T115" s="6"/>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B116" s="5"/>
       <c r="T116" s="6"/>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B117" s="5"/>
       <c r="T117" s="6"/>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B118" s="5"/>
       <c r="T118" s="6"/>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B119" s="5"/>
       <c r="T119" s="6"/>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B120" s="5"/>
       <c r="T120" s="6"/>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
       <c r="T121" s="6"/>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="T122" s="6"/>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="T123" s="6"/>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="T124" s="6"/>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B125" s="5"/>
       <c r="T125" s="6"/>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>
       <c r="T126" s="6"/>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B127" s="5"/>
       <c r="T127" s="6"/>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B128" s="5"/>
       <c r="T128" s="6"/>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B129" s="5"/>
       <c r="T129" s="6"/>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B130" s="5"/>
       <c r="T130" s="6"/>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B131" s="5"/>
       <c r="T131" s="6"/>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B132" s="5"/>
       <c r="T132" s="6"/>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B133" s="5"/>
       <c r="T133" s="6"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B134" s="5"/>
       <c r="T134" s="6"/>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
       <c r="T135" s="6"/>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B136" s="5"/>
       <c r="T136" s="6"/>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
       <c r="T137" s="6"/>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B138" s="5"/>
       <c r="T138" s="6"/>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B139" s="5"/>
       <c r="T139" s="6"/>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B140" s="5"/>
       <c r="T140" s="6"/>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B141" s="5"/>
       <c r="T141" s="6"/>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B142" s="5"/>
       <c r="T142" s="6"/>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B143" s="5"/>
       <c r="T143" s="6"/>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B144" s="5"/>
       <c r="T144" s="6"/>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B145" s="5"/>
       <c r="T145" s="6"/>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B146" s="5"/>
       <c r="T146" s="6"/>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B147" s="5"/>
       <c r="T147" s="6"/>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
       <c r="T148" s="6"/>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B149" s="5"/>
       <c r="T149" s="6"/>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B150" s="5"/>
       <c r="T150" s="6"/>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B151" s="5"/>
       <c r="T151" s="6"/>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B152" s="5"/>
       <c r="T152" s="6"/>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B153" s="5"/>
       <c r="T153" s="6"/>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B154" s="5"/>
       <c r="T154" s="6"/>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B155" s="5"/>
       <c r="T155" s="6"/>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B156" s="5"/>
       <c r="T156" s="6"/>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
       <c r="T157" s="6"/>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B158" s="5"/>
       <c r="T158" s="6"/>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B159" s="5"/>
       <c r="T159" s="6"/>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
       <c r="T160" s="6"/>
     </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="T161" s="6"/>
     </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="T162" s="6"/>
     </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="T163" s="6"/>
     </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="T164" s="6"/>
     </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="T165" s="6"/>
     </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="T166" s="6"/>
     </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
       <c r="T167" s="6"/>
     </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
       <c r="T168" s="6"/>
     </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B169" s="5"/>
       <c r="T169" s="6"/>
     </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B170" s="5"/>
       <c r="T170" s="6"/>
     </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
       <c r="T171" s="6"/>
     </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="T172" s="6"/>
     </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B173" s="5"/>
       <c r="T173" s="6"/>
     </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B174" s="5"/>
       <c r="T174" s="6"/>
     </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B175" s="5"/>
       <c r="T175" s="6"/>
     </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B176" s="5"/>
       <c r="T176" s="6"/>
     </row>
-    <row r="177" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B177" s="5"/>
       <c r="T177" s="6"/>
     </row>
-    <row r="178" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B178" s="5"/>
       <c r="T178" s="6"/>
     </row>
-    <row r="179" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B179" s="5"/>
       <c r="T179" s="6"/>
     </row>
-    <row r="180" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B180" s="5"/>
       <c r="T180" s="6"/>
     </row>
-    <row r="181" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B181" s="5"/>
       <c r="T181" s="6"/>
     </row>
-    <row r="182" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B182" s="5"/>
       <c r="T182" s="6"/>
     </row>
-    <row r="183" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B183" s="5"/>
       <c r="T183" s="6"/>
     </row>
-    <row r="184" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B184" s="5"/>
       <c r="T184" s="6"/>
     </row>
-    <row r="185" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B185" s="5"/>
       <c r="T185" s="6"/>
     </row>
-    <row r="186" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B186" s="5"/>
       <c r="T186" s="6"/>
     </row>
-    <row r="187" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B187" s="5"/>
       <c r="T187" s="6"/>
     </row>
-    <row r="188" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B188" s="5"/>
       <c r="T188" s="6"/>
     </row>
-    <row r="189" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B189" s="5"/>
       <c r="T189" s="6"/>
     </row>
-    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B190" s="5"/>
       <c r="T190" s="6"/>
     </row>
-    <row r="191" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B191" s="5"/>
       <c r="T191" s="6"/>
     </row>
-    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B192" s="5"/>
       <c r="T192" s="6"/>
     </row>
-    <row r="193" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B193" s="5"/>
       <c r="T193" s="6"/>
     </row>
-    <row r="194" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B194" s="5"/>
       <c r="T194" s="6"/>
     </row>
-    <row r="195" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B195" s="5"/>
       <c r="T195" s="6"/>
     </row>
-    <row r="196" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B196" s="5"/>
       <c r="T196" s="6"/>
     </row>
-    <row r="197" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B197" s="5"/>
       <c r="T197" s="6"/>
     </row>
-    <row r="198" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B198" s="5"/>
       <c r="T198" s="6"/>
     </row>
-    <row r="199" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B199" s="5"/>
       <c r="T199" s="6"/>
     </row>
-    <row r="200" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B200" s="5"/>
       <c r="T200" s="6"/>
     </row>
-    <row r="201" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B201" s="5"/>
       <c r="T201" s="6"/>
     </row>
-    <row r="202" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B202" s="5"/>
       <c r="T202" s="6"/>
     </row>
-    <row r="203" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B203" s="5"/>
       <c r="T203" s="6"/>
     </row>
-    <row r="204" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B204" s="5"/>
       <c r="T204" s="6"/>
     </row>
-    <row r="205" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B205" s="5"/>
       <c r="T205" s="6"/>
     </row>
-    <row r="206" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B206" s="5"/>
       <c r="T206" s="6"/>
     </row>
-    <row r="207" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B207" s="5"/>
       <c r="T207" s="6"/>
     </row>
-    <row r="208" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B208" s="5"/>
       <c r="T208" s="6"/>
     </row>
-    <row r="209" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B209" s="5"/>
       <c r="T209" s="6"/>
     </row>
-    <row r="210" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B210" s="5"/>
       <c r="T210" s="6"/>
     </row>
-    <row r="211" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B211" s="5"/>
       <c r="T211" s="6"/>
     </row>
-    <row r="212" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B212" s="5"/>
       <c r="T212" s="6"/>
     </row>
-    <row r="213" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B213" s="5"/>
       <c r="T213" s="6"/>
     </row>
-    <row r="214" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B214" s="5"/>
       <c r="T214" s="6"/>
     </row>
-    <row r="215" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B215" s="5"/>
       <c r="T215" s="6"/>
     </row>
-    <row r="216" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B216" s="5"/>
       <c r="T216" s="6"/>
     </row>
-    <row r="217" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B217" s="5"/>
       <c r="T217" s="6"/>
     </row>
-    <row r="218" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B218" s="5"/>
       <c r="T218" s="6"/>
     </row>
-    <row r="219" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B219" s="5"/>
       <c r="T219" s="6"/>
     </row>
-    <row r="220" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B220" s="5"/>
       <c r="T220" s="6"/>
     </row>
-    <row r="221" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B221" s="5"/>
       <c r="T221" s="6"/>
     </row>
-    <row r="222" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B222" s="7"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
@@ -3905,7 +3708,7 @@
       <c r="S222" s="8"/>
       <c r="T222" s="9"/>
     </row>
-    <row r="225" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -3926,1111 +3729,1111 @@
       <c r="S225" s="3"/>
       <c r="T225" s="4"/>
     </row>
-    <row r="226" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B226" s="5"/>
       <c r="T226" s="6"/>
     </row>
-    <row r="227" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B227" s="5"/>
       <c r="T227" s="6"/>
     </row>
-    <row r="228" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B228" s="5"/>
       <c r="T228" s="6"/>
     </row>
-    <row r="229" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B229" s="5"/>
       <c r="T229" s="6"/>
     </row>
-    <row r="230" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B230" s="5"/>
       <c r="T230" s="6"/>
     </row>
-    <row r="231" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B231" s="5"/>
       <c r="T231" s="6"/>
     </row>
-    <row r="232" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B232" s="5"/>
       <c r="T232" s="6"/>
     </row>
-    <row r="233" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B233" s="5"/>
       <c r="T233" s="6"/>
     </row>
-    <row r="234" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B234" s="5"/>
       <c r="T234" s="6"/>
     </row>
-    <row r="235" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B235" s="5"/>
       <c r="T235" s="6"/>
     </row>
-    <row r="236" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B236" s="5"/>
       <c r="T236" s="6"/>
     </row>
-    <row r="237" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B237" s="5"/>
       <c r="T237" s="6"/>
     </row>
-    <row r="238" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B238" s="5"/>
       <c r="T238" s="6"/>
     </row>
-    <row r="239" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B239" s="5"/>
       <c r="T239" s="6"/>
     </row>
-    <row r="240" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B240" s="5"/>
       <c r="T240" s="6"/>
     </row>
-    <row r="241" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B241" s="5"/>
       <c r="T241" s="6"/>
     </row>
-    <row r="242" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B242" s="5"/>
       <c r="T242" s="6"/>
     </row>
-    <row r="243" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B243" s="5"/>
       <c r="T243" s="6"/>
     </row>
-    <row r="244" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B244" s="5"/>
       <c r="T244" s="6"/>
     </row>
-    <row r="245" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B245" s="5"/>
       <c r="T245" s="6"/>
     </row>
-    <row r="246" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B246" s="5"/>
       <c r="T246" s="6"/>
     </row>
-    <row r="247" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B247" s="5"/>
       <c r="T247" s="6"/>
     </row>
-    <row r="248" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B248" s="5"/>
       <c r="T248" s="6"/>
     </row>
-    <row r="249" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B249" s="5"/>
       <c r="T249" s="6"/>
     </row>
-    <row r="250" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B250" s="5"/>
       <c r="T250" s="6"/>
     </row>
-    <row r="251" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B251" s="5"/>
       <c r="T251" s="6"/>
     </row>
-    <row r="252" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B252" s="5"/>
       <c r="T252" s="6"/>
     </row>
-    <row r="253" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B253" s="5"/>
       <c r="T253" s="6"/>
     </row>
-    <row r="254" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B254" s="5"/>
       <c r="T254" s="6"/>
     </row>
-    <row r="255" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B255" s="5"/>
       <c r="T255" s="6"/>
     </row>
-    <row r="256" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B256" s="5"/>
       <c r="T256" s="6"/>
     </row>
-    <row r="257" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B257" s="5"/>
       <c r="T257" s="6"/>
     </row>
-    <row r="258" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B258" s="5"/>
       <c r="T258" s="6"/>
     </row>
-    <row r="259" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B259" s="5"/>
       <c r="T259" s="6"/>
     </row>
-    <row r="260" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B260" s="5"/>
       <c r="T260" s="6"/>
     </row>
-    <row r="261" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B261" s="5"/>
       <c r="T261" s="6"/>
     </row>
-    <row r="262" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B262" s="5"/>
       <c r="T262" s="6"/>
     </row>
-    <row r="263" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B263" s="5"/>
       <c r="T263" s="6"/>
     </row>
-    <row r="264" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B264" s="5"/>
       <c r="T264" s="6"/>
     </row>
-    <row r="265" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B265" s="5"/>
       <c r="T265" s="6"/>
     </row>
-    <row r="266" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B266" s="5"/>
       <c r="T266" s="6"/>
     </row>
-    <row r="267" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B267" s="5"/>
       <c r="T267" s="6"/>
     </row>
-    <row r="268" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B268" s="5"/>
       <c r="T268" s="6"/>
     </row>
-    <row r="269" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B269" s="5"/>
       <c r="T269" s="6"/>
     </row>
-    <row r="270" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B270" s="5"/>
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
       <c r="T271" s="6"/>
     </row>
-    <row r="272" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
       <c r="T272" s="6"/>
     </row>
-    <row r="273" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B273" s="5"/>
       <c r="T273" s="6"/>
     </row>
-    <row r="274" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B274" s="5"/>
       <c r="T274" s="6"/>
     </row>
-    <row r="275" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B275" s="5"/>
       <c r="T275" s="6"/>
     </row>
-    <row r="276" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B276" s="5"/>
       <c r="T276" s="6"/>
     </row>
-    <row r="277" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B277" s="5"/>
       <c r="T277" s="6"/>
     </row>
-    <row r="278" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B278" s="5"/>
       <c r="T278" s="6"/>
     </row>
-    <row r="279" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B279" s="5"/>
       <c r="T279" s="6"/>
     </row>
-    <row r="280" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B280" s="5"/>
       <c r="T280" s="6"/>
     </row>
-    <row r="281" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B281" s="5"/>
       <c r="T281" s="6"/>
     </row>
-    <row r="282" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B282" s="5"/>
       <c r="T282" s="6"/>
     </row>
-    <row r="283" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B283" s="5"/>
       <c r="T283" s="6"/>
     </row>
-    <row r="284" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B284" s="5"/>
       <c r="T284" s="6"/>
     </row>
-    <row r="285" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B285" s="5"/>
       <c r="T285" s="6"/>
     </row>
-    <row r="286" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B286" s="5"/>
       <c r="T286" s="6"/>
     </row>
-    <row r="287" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B287" s="5"/>
       <c r="T287" s="6"/>
     </row>
-    <row r="288" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B288" s="5"/>
       <c r="T288" s="6"/>
     </row>
-    <row r="289" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B289" s="5"/>
       <c r="T289" s="6"/>
     </row>
-    <row r="290" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B290" s="5"/>
       <c r="T290" s="6"/>
     </row>
-    <row r="291" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B291" s="5"/>
       <c r="T291" s="6"/>
     </row>
-    <row r="292" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B292" s="5"/>
       <c r="T292" s="6"/>
     </row>
-    <row r="293" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B293" s="5"/>
       <c r="T293" s="6"/>
     </row>
-    <row r="294" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B294" s="5"/>
       <c r="T294" s="6"/>
     </row>
-    <row r="295" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B295" s="5"/>
       <c r="T295" s="6"/>
     </row>
-    <row r="296" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B296" s="5"/>
       <c r="T296" s="6"/>
     </row>
-    <row r="297" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B297" s="5"/>
       <c r="T297" s="6"/>
     </row>
-    <row r="298" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B298" s="5"/>
       <c r="T298" s="6"/>
     </row>
-    <row r="299" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B299" s="5"/>
       <c r="T299" s="6"/>
     </row>
-    <row r="300" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B300" s="5"/>
       <c r="T300" s="6"/>
     </row>
-    <row r="301" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B301" s="5"/>
       <c r="T301" s="6"/>
     </row>
-    <row r="302" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B302" s="5"/>
       <c r="T302" s="6"/>
     </row>
-    <row r="303" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B303" s="5"/>
       <c r="T303" s="6"/>
     </row>
-    <row r="304" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B304" s="5"/>
       <c r="T304" s="6"/>
     </row>
-    <row r="305" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B305" s="5"/>
       <c r="T305" s="6"/>
     </row>
-    <row r="306" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B306" s="5"/>
       <c r="T306" s="6"/>
     </row>
-    <row r="307" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B307" s="5"/>
       <c r="T307" s="6"/>
     </row>
-    <row r="308" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B308" s="5"/>
       <c r="T308" s="6"/>
     </row>
-    <row r="309" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B309" s="5"/>
       <c r="T309" s="6"/>
     </row>
-    <row r="310" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B310" s="5"/>
       <c r="T310" s="6"/>
     </row>
-    <row r="311" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B311" s="5"/>
       <c r="T311" s="6"/>
     </row>
-    <row r="312" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B312" s="5"/>
       <c r="T312" s="6"/>
     </row>
-    <row r="313" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B313" s="5"/>
       <c r="T313" s="6"/>
     </row>
-    <row r="314" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B314" s="5"/>
       <c r="T314" s="6"/>
     </row>
-    <row r="315" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B315" s="5"/>
       <c r="T315" s="6"/>
     </row>
-    <row r="316" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B316" s="5"/>
       <c r="T316" s="6"/>
     </row>
-    <row r="317" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B317" s="5"/>
       <c r="T317" s="6"/>
     </row>
-    <row r="318" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B318" s="5"/>
       <c r="T318" s="6"/>
     </row>
-    <row r="319" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B319" s="5"/>
       <c r="T319" s="6"/>
     </row>
-    <row r="320" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B320" s="5"/>
       <c r="T320" s="6"/>
     </row>
-    <row r="321" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B321" s="5"/>
       <c r="T321" s="6"/>
     </row>
-    <row r="322" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B322" s="5"/>
       <c r="T322" s="6"/>
     </row>
-    <row r="323" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B323" s="5"/>
       <c r="T323" s="6"/>
     </row>
-    <row r="324" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B324" s="5"/>
       <c r="T324" s="6"/>
     </row>
-    <row r="325" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B325" s="5"/>
       <c r="T325" s="6"/>
     </row>
-    <row r="326" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B326" s="5"/>
       <c r="T326" s="6"/>
     </row>
-    <row r="327" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B327" s="5"/>
       <c r="T327" s="6"/>
     </row>
-    <row r="328" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B328" s="5"/>
       <c r="T328" s="6"/>
     </row>
-    <row r="329" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B329" s="5"/>
       <c r="T329" s="6"/>
     </row>
-    <row r="330" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B330" s="5"/>
       <c r="T330" s="6"/>
     </row>
-    <row r="331" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B331" s="5"/>
       <c r="T331" s="6"/>
     </row>
-    <row r="332" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B332" s="5"/>
       <c r="T332" s="6"/>
     </row>
-    <row r="333" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B333" s="5"/>
       <c r="T333" s="6"/>
     </row>
-    <row r="334" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B334" s="5"/>
       <c r="T334" s="6"/>
     </row>
-    <row r="335" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B335" s="5"/>
       <c r="T335" s="6"/>
     </row>
-    <row r="336" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B336" s="5"/>
       <c r="T336" s="6"/>
     </row>
-    <row r="337" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B337" s="5"/>
       <c r="T337" s="6"/>
     </row>
-    <row r="338" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B338" s="5"/>
       <c r="T338" s="6"/>
     </row>
-    <row r="339" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B339" s="5"/>
       <c r="T339" s="6"/>
     </row>
-    <row r="340" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B340" s="5"/>
       <c r="T340" s="6"/>
     </row>
-    <row r="341" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B341" s="5"/>
       <c r="T341" s="6"/>
     </row>
-    <row r="342" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B342" s="5"/>
       <c r="T342" s="6"/>
     </row>
-    <row r="343" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B343" s="5"/>
       <c r="T343" s="6"/>
     </row>
-    <row r="344" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B344" s="5"/>
       <c r="T344" s="6"/>
     </row>
-    <row r="345" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B345" s="5"/>
       <c r="T345" s="6"/>
     </row>
-    <row r="346" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B346" s="5"/>
       <c r="T346" s="6"/>
     </row>
-    <row r="347" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B347" s="5"/>
       <c r="T347" s="6"/>
     </row>
-    <row r="348" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B348" s="5"/>
       <c r="T348" s="6"/>
     </row>
-    <row r="349" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B349" s="5"/>
       <c r="T349" s="6"/>
     </row>
-    <row r="350" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B350" s="5"/>
       <c r="T350" s="6"/>
     </row>
-    <row r="351" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B351" s="5"/>
       <c r="T351" s="6"/>
     </row>
-    <row r="352" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B352" s="5"/>
       <c r="T352" s="6"/>
     </row>
-    <row r="353" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B353" s="5"/>
       <c r="T353" s="6"/>
     </row>
-    <row r="354" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B354" s="5"/>
       <c r="T354" s="6"/>
     </row>
-    <row r="355" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B355" s="5"/>
       <c r="T355" s="6"/>
     </row>
-    <row r="356" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B356" s="5"/>
       <c r="T356" s="6"/>
     </row>
-    <row r="357" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B357" s="5"/>
       <c r="T357" s="6"/>
     </row>
-    <row r="358" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B358" s="5"/>
       <c r="T358" s="6"/>
     </row>
-    <row r="359" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B359" s="5"/>
       <c r="T359" s="6"/>
     </row>
-    <row r="360" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B360" s="5"/>
       <c r="T360" s="6"/>
     </row>
-    <row r="361" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B361" s="5"/>
       <c r="T361" s="6"/>
     </row>
-    <row r="362" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B362" s="5"/>
       <c r="T362" s="6"/>
     </row>
-    <row r="363" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B363" s="5"/>
       <c r="T363" s="6"/>
     </row>
-    <row r="364" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B364" s="5"/>
       <c r="T364" s="6"/>
     </row>
-    <row r="365" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B365" s="5"/>
       <c r="T365" s="6"/>
     </row>
-    <row r="366" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B366" s="5"/>
       <c r="T366" s="6"/>
     </row>
-    <row r="367" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B367" s="5"/>
       <c r="T367" s="6"/>
     </row>
-    <row r="368" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B368" s="5"/>
       <c r="T368" s="6"/>
     </row>
-    <row r="369" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B369" s="5"/>
       <c r="T369" s="6"/>
     </row>
-    <row r="370" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B370" s="5"/>
       <c r="T370" s="6"/>
     </row>
-    <row r="371" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B371" s="5"/>
       <c r="T371" s="6"/>
     </row>
-    <row r="372" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B372" s="5"/>
       <c r="T372" s="6"/>
     </row>
-    <row r="373" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B373" s="5"/>
       <c r="T373" s="6"/>
     </row>
-    <row r="374" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B374" s="5"/>
       <c r="T374" s="6"/>
     </row>
-    <row r="375" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B375" s="5"/>
       <c r="T375" s="6"/>
     </row>
-    <row r="376" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B376" s="5"/>
       <c r="T376" s="6"/>
     </row>
-    <row r="377" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B377" s="5"/>
       <c r="T377" s="6"/>
     </row>
-    <row r="378" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B378" s="5"/>
       <c r="T378" s="6"/>
     </row>
-    <row r="379" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B379" s="5"/>
       <c r="T379" s="6"/>
     </row>
-    <row r="380" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B380" s="5"/>
       <c r="T380" s="6"/>
     </row>
-    <row r="381" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B381" s="5"/>
       <c r="T381" s="6"/>
     </row>
-    <row r="382" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B382" s="5"/>
       <c r="T382" s="6"/>
     </row>
-    <row r="383" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B383" s="5"/>
       <c r="T383" s="6"/>
     </row>
-    <row r="384" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B384" s="5"/>
       <c r="T384" s="6"/>
     </row>
-    <row r="385" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B385" s="5"/>
       <c r="T385" s="6"/>
     </row>
-    <row r="386" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B386" s="5"/>
       <c r="T386" s="6"/>
     </row>
-    <row r="387" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B387" s="5"/>
       <c r="T387" s="6"/>
     </row>
-    <row r="388" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B388" s="5"/>
       <c r="T388" s="6"/>
     </row>
-    <row r="389" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B389" s="5"/>
       <c r="T389" s="6"/>
     </row>
-    <row r="390" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B390" s="5"/>
       <c r="T390" s="6"/>
     </row>
-    <row r="391" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B391" s="5"/>
       <c r="T391" s="6"/>
     </row>
-    <row r="392" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B392" s="5"/>
       <c r="T392" s="6"/>
     </row>
-    <row r="393" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B393" s="5"/>
       <c r="T393" s="6"/>
     </row>
-    <row r="394" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B394" s="5"/>
       <c r="T394" s="6"/>
     </row>
-    <row r="395" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B395" s="5"/>
       <c r="T395" s="6"/>
     </row>
-    <row r="396" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B396" s="5"/>
       <c r="T396" s="6"/>
     </row>
-    <row r="397" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B397" s="5"/>
       <c r="T397" s="6"/>
     </row>
-    <row r="398" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B398" s="5"/>
       <c r="T398" s="6"/>
     </row>
-    <row r="399" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B399" s="5"/>
       <c r="T399" s="6"/>
     </row>
-    <row r="400" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B400" s="5"/>
       <c r="T400" s="6"/>
     </row>
-    <row r="401" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B401" s="5"/>
       <c r="T401" s="6"/>
     </row>
-    <row r="402" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B402" s="5"/>
       <c r="T402" s="6"/>
     </row>
-    <row r="403" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B403" s="5"/>
       <c r="T403" s="6"/>
     </row>
-    <row r="404" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B404" s="5"/>
       <c r="T404" s="6"/>
     </row>
-    <row r="405" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B405" s="5"/>
       <c r="T405" s="6"/>
     </row>
-    <row r="406" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B406" s="5"/>
       <c r="T406" s="6"/>
     </row>
-    <row r="407" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B407" s="5"/>
       <c r="T407" s="6"/>
     </row>
-    <row r="408" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B408" s="5"/>
       <c r="T408" s="6"/>
     </row>
-    <row r="409" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
       <c r="T409" s="6"/>
     </row>
-    <row r="410" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B410" s="5"/>
       <c r="T410" s="6"/>
     </row>
-    <row r="411" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B411" s="5"/>
       <c r="T411" s="6"/>
     </row>
-    <row r="412" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B412" s="5"/>
       <c r="T412" s="6"/>
     </row>
-    <row r="413" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B413" s="5"/>
       <c r="T413" s="6"/>
     </row>
-    <row r="414" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B414" s="5"/>
       <c r="T414" s="6"/>
     </row>
-    <row r="415" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B415" s="5"/>
       <c r="T415" s="6"/>
     </row>
-    <row r="416" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B416" s="5"/>
       <c r="T416" s="6"/>
     </row>
-    <row r="417" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B417" s="5"/>
       <c r="T417" s="6"/>
     </row>
-    <row r="418" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B418" s="5"/>
       <c r="T418" s="6"/>
     </row>
-    <row r="419" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B419" s="5"/>
       <c r="T419" s="6"/>
     </row>
-    <row r="420" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B420" s="5"/>
       <c r="T420" s="6"/>
     </row>
-    <row r="421" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B421" s="5"/>
       <c r="T421" s="6"/>
     </row>
-    <row r="422" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B422" s="5"/>
       <c r="T422" s="6"/>
     </row>
-    <row r="423" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B423" s="5"/>
       <c r="T423" s="6"/>
     </row>
-    <row r="424" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B424" s="5"/>
       <c r="T424" s="6"/>
     </row>
-    <row r="425" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B425" s="5"/>
       <c r="T425" s="6"/>
     </row>
-    <row r="426" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B426" s="5"/>
       <c r="T426" s="6"/>
     </row>
-    <row r="427" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B427" s="5"/>
       <c r="T427" s="6"/>
     </row>
-    <row r="428" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B428" s="5"/>
       <c r="T428" s="6"/>
     </row>
-    <row r="429" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B429" s="5"/>
       <c r="T429" s="6"/>
     </row>
-    <row r="430" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B430" s="5"/>
       <c r="T430" s="6"/>
     </row>
-    <row r="431" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B431" s="5"/>
       <c r="T431" s="6"/>
     </row>
-    <row r="432" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B432" s="5"/>
       <c r="T432" s="6"/>
     </row>
-    <row r="433" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B433" s="5"/>
       <c r="T433" s="6"/>
     </row>
-    <row r="434" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B434" s="5"/>
       <c r="T434" s="6"/>
     </row>
-    <row r="435" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B435" s="5"/>
       <c r="T435" s="6"/>
     </row>
-    <row r="436" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B436" s="5"/>
       <c r="T436" s="6"/>
     </row>
-    <row r="437" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B437" s="5"/>
       <c r="T437" s="6"/>
     </row>
-    <row r="438" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B438" s="5"/>
       <c r="T438" s="6"/>
     </row>
-    <row r="439" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B439" s="5"/>
       <c r="T439" s="6"/>
     </row>
-    <row r="440" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B440" s="5"/>
       <c r="T440" s="6"/>
     </row>
-    <row r="441" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B441" s="5"/>
       <c r="T441" s="6"/>
     </row>
-    <row r="442" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B442" s="5"/>
       <c r="T442" s="6"/>
     </row>
-    <row r="443" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B443" s="5"/>
       <c r="T443" s="6"/>
     </row>
-    <row r="444" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B444" s="5"/>
       <c r="T444" s="6"/>
     </row>
-    <row r="445" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B445" s="5"/>
       <c r="T445" s="6"/>
     </row>
-    <row r="446" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B446" s="5"/>
       <c r="T446" s="6"/>
     </row>
-    <row r="447" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B447" s="5"/>
       <c r="T447" s="6"/>
     </row>
-    <row r="448" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B448" s="5"/>
       <c r="T448" s="6"/>
     </row>
-    <row r="449" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B449" s="5"/>
       <c r="T449" s="6"/>
     </row>
-    <row r="450" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B450" s="5"/>
       <c r="T450" s="6"/>
     </row>
-    <row r="451" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B451" s="5"/>
       <c r="T451" s="6"/>
     </row>
-    <row r="452" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B452" s="5"/>
       <c r="T452" s="6"/>
     </row>
-    <row r="453" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B453" s="5"/>
       <c r="T453" s="6"/>
     </row>
-    <row r="454" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B454" s="5"/>
       <c r="T454" s="6"/>
     </row>
-    <row r="455" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B455" s="5"/>
       <c r="T455" s="6"/>
     </row>
-    <row r="456" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B456" s="5"/>
       <c r="T456" s="6"/>
     </row>
-    <row r="457" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B457" s="5"/>
       <c r="T457" s="6"/>
     </row>
-    <row r="458" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B458" s="5"/>
       <c r="T458" s="6"/>
     </row>
-    <row r="459" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B459" s="5"/>
       <c r="T459" s="6"/>
     </row>
-    <row r="460" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B460" s="5"/>
       <c r="T460" s="6"/>
     </row>
-    <row r="461" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B461" s="5"/>
       <c r="T461" s="6"/>
     </row>
-    <row r="462" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B462" s="5"/>
       <c r="T462" s="6"/>
     </row>
-    <row r="463" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B463" s="5"/>
       <c r="T463" s="6"/>
     </row>
-    <row r="464" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B464" s="5"/>
       <c r="T464" s="6"/>
     </row>
-    <row r="465" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B465" s="5"/>
       <c r="T465" s="6"/>
     </row>
-    <row r="466" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B466" s="5"/>
       <c r="T466" s="6"/>
     </row>
-    <row r="467" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B467" s="5"/>
       <c r="T467" s="6"/>
     </row>
-    <row r="468" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B468" s="5"/>
       <c r="T468" s="6"/>
     </row>
-    <row r="469" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B469" s="5"/>
       <c r="T469" s="6"/>
     </row>
-    <row r="470" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B470" s="5"/>
       <c r="T470" s="6"/>
     </row>
-    <row r="471" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B471" s="5"/>
       <c r="T471" s="6"/>
     </row>
-    <row r="472" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B472" s="5"/>
       <c r="T472" s="6"/>
     </row>
-    <row r="473" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B473" s="5"/>
       <c r="T473" s="6"/>
     </row>
-    <row r="474" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B474" s="5"/>
       <c r="T474" s="6"/>
     </row>
-    <row r="475" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B475" s="5"/>
       <c r="T475" s="6"/>
     </row>
-    <row r="476" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B476" s="5"/>
       <c r="T476" s="6"/>
     </row>
-    <row r="477" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B477" s="5"/>
       <c r="T477" s="6"/>
     </row>
-    <row r="478" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B478" s="5"/>
       <c r="T478" s="6"/>
     </row>
-    <row r="479" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B479" s="5"/>
       <c r="T479" s="6"/>
     </row>
-    <row r="480" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B480" s="5"/>
       <c r="T480" s="6"/>
     </row>
-    <row r="481" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B481" s="5"/>
       <c r="T481" s="6"/>
     </row>
-    <row r="482" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B482" s="5"/>
       <c r="T482" s="6"/>
     </row>
-    <row r="483" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B483" s="5"/>
       <c r="T483" s="6"/>
     </row>
-    <row r="484" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B484" s="5"/>
       <c r="T484" s="6"/>
     </row>
-    <row r="485" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B485" s="5"/>
       <c r="T485" s="6"/>
     </row>
-    <row r="486" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B486" s="5"/>
       <c r="T486" s="6"/>
     </row>
-    <row r="487" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B487" s="5"/>
       <c r="T487" s="6"/>
     </row>
-    <row r="488" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B488" s="5"/>
       <c r="T488" s="6"/>
     </row>
-    <row r="489" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B489" s="5"/>
       <c r="T489" s="6"/>
     </row>
-    <row r="490" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B490" s="5"/>
       <c r="T490" s="6"/>
     </row>
-    <row r="491" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B491" s="5"/>
       <c r="T491" s="6"/>
     </row>
-    <row r="492" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B492" s="5"/>
       <c r="T492" s="6"/>
     </row>
-    <row r="493" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B493" s="5"/>
       <c r="T493" s="6"/>
     </row>
-    <row r="494" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B494" s="5"/>
       <c r="T494" s="6"/>
     </row>
-    <row r="495" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B495" s="5"/>
       <c r="T495" s="6"/>
     </row>
-    <row r="496" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B496" s="5"/>
       <c r="T496" s="6"/>
     </row>
-    <row r="497" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B497" s="5"/>
       <c r="T497" s="6"/>
     </row>
-    <row r="498" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B498" s="5"/>
       <c r="T498" s="6"/>
     </row>
-    <row r="499" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B499" s="5"/>
       <c r="T499" s="6"/>
     </row>
-    <row r="500" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B500" s="5"/>
       <c r="T500" s="6"/>
     </row>
-    <row r="501" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B501" s="5"/>
       <c r="T501" s="6"/>
     </row>
-    <row r="502" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B502" s="7"/>
       <c r="C502" s="8"/>
       <c r="D502" s="8"/>
@@ -5051,7 +4854,7 @@
       <c r="S502" s="8"/>
       <c r="T502" s="9"/>
     </row>
-    <row r="505" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B505" s="2"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -5072,271 +4875,271 @@
       <c r="S505" s="3"/>
       <c r="T505" s="4"/>
     </row>
-    <row r="506" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B506" s="5"/>
       <c r="T506" s="6"/>
     </row>
-    <row r="507" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B507" s="5"/>
       <c r="T507" s="6"/>
     </row>
-    <row r="508" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B508" s="5"/>
       <c r="T508" s="6"/>
     </row>
-    <row r="509" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B509" s="5"/>
       <c r="T509" s="6"/>
     </row>
-    <row r="510" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B510" s="5"/>
       <c r="T510" s="6"/>
     </row>
-    <row r="511" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B511" s="5"/>
       <c r="T511" s="6"/>
     </row>
-    <row r="512" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B512" s="5"/>
       <c r="T512" s="6"/>
     </row>
-    <row r="513" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B513" s="5"/>
       <c r="T513" s="6"/>
     </row>
-    <row r="514" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B514" s="5"/>
       <c r="T514" s="6"/>
     </row>
-    <row r="515" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B515" s="5"/>
       <c r="T515" s="6"/>
     </row>
-    <row r="516" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B516" s="5"/>
       <c r="T516" s="6"/>
     </row>
-    <row r="517" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B517" s="5"/>
       <c r="T517" s="6"/>
     </row>
-    <row r="518" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B518" s="5"/>
       <c r="T518" s="6"/>
     </row>
-    <row r="519" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B519" s="5"/>
       <c r="T519" s="6"/>
     </row>
-    <row r="520" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B520" s="5"/>
       <c r="T520" s="6"/>
     </row>
-    <row r="521" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B521" s="5"/>
       <c r="T521" s="6"/>
     </row>
-    <row r="522" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B522" s="5"/>
       <c r="T522" s="6"/>
     </row>
-    <row r="523" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B523" s="5"/>
       <c r="T523" s="6"/>
     </row>
-    <row r="524" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B524" s="5"/>
       <c r="T524" s="6"/>
     </row>
-    <row r="525" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B525" s="5"/>
       <c r="T525" s="6"/>
     </row>
-    <row r="526" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B526" s="5"/>
       <c r="T526" s="6"/>
     </row>
-    <row r="527" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B527" s="5"/>
       <c r="T527" s="6"/>
     </row>
-    <row r="528" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B528" s="5"/>
       <c r="T528" s="6"/>
     </row>
-    <row r="529" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B529" s="5"/>
       <c r="T529" s="6"/>
     </row>
-    <row r="530" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B530" s="5"/>
       <c r="T530" s="6"/>
     </row>
-    <row r="531" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B531" s="5"/>
       <c r="T531" s="6"/>
     </row>
-    <row r="532" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B532" s="5"/>
       <c r="T532" s="6"/>
     </row>
-    <row r="533" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B533" s="5"/>
       <c r="T533" s="6"/>
     </row>
-    <row r="534" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B534" s="5"/>
       <c r="T534" s="6"/>
     </row>
-    <row r="535" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B535" s="5"/>
       <c r="T535" s="6"/>
     </row>
-    <row r="536" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B536" s="5"/>
       <c r="T536" s="6"/>
     </row>
-    <row r="537" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B537" s="5"/>
       <c r="T537" s="6"/>
     </row>
-    <row r="538" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B538" s="5"/>
       <c r="T538" s="6"/>
     </row>
-    <row r="539" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B539" s="5"/>
       <c r="T539" s="6"/>
     </row>
-    <row r="540" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B540" s="5"/>
       <c r="T540" s="6"/>
     </row>
-    <row r="541" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B541" s="5"/>
       <c r="T541" s="6"/>
     </row>
-    <row r="542" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B542" s="5"/>
       <c r="T542" s="6"/>
     </row>
-    <row r="543" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B543" s="5"/>
       <c r="T543" s="6"/>
     </row>
-    <row r="544" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B544" s="5"/>
       <c r="T544" s="6"/>
     </row>
-    <row r="545" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B545" s="5"/>
       <c r="T545" s="6"/>
     </row>
-    <row r="546" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B546" s="5"/>
       <c r="T546" s="6"/>
     </row>
-    <row r="547" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B547" s="5"/>
       <c r="T547" s="6"/>
     </row>
-    <row r="548" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B548" s="5"/>
       <c r="T548" s="6"/>
     </row>
-    <row r="549" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B549" s="5"/>
       <c r="T549" s="6"/>
     </row>
-    <row r="550" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B550" s="5"/>
       <c r="T550" s="6"/>
     </row>
-    <row r="551" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B551" s="5"/>
       <c r="T551" s="6"/>
     </row>
-    <row r="552" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B552" s="5"/>
       <c r="T552" s="6"/>
     </row>
-    <row r="553" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B553" s="5"/>
       <c r="T553" s="6"/>
     </row>
-    <row r="554" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B554" s="5"/>
       <c r="T554" s="6"/>
     </row>
-    <row r="555" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B555" s="5"/>
       <c r="T555" s="6"/>
     </row>
-    <row r="556" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B556" s="5"/>
       <c r="T556" s="6"/>
     </row>
-    <row r="557" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B557" s="5"/>
       <c r="T557" s="6"/>
     </row>
-    <row r="558" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B558" s="5"/>
       <c r="T558" s="6"/>
     </row>
-    <row r="559" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B559" s="5"/>
       <c r="T559" s="6"/>
     </row>
-    <row r="560" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B560" s="5"/>
       <c r="T560" s="6"/>
     </row>
-    <row r="561" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B561" s="5"/>
       <c r="T561" s="6"/>
     </row>
-    <row r="562" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B562" s="5"/>
       <c r="T562" s="6"/>
     </row>
-    <row r="563" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B563" s="5"/>
       <c r="T563" s="6"/>
     </row>
-    <row r="564" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B564" s="5"/>
       <c r="T564" s="6"/>
     </row>
-    <row r="565" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B565" s="5"/>
       <c r="T565" s="6"/>
     </row>
-    <row r="566" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B566" s="5"/>
       <c r="T566" s="6"/>
     </row>
-    <row r="567" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B567" s="5"/>
       <c r="T567" s="6"/>
     </row>
-    <row r="568" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B568" s="5"/>
       <c r="T568" s="6"/>
     </row>
-    <row r="569" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B569" s="5"/>
       <c r="T569" s="6"/>
     </row>
-    <row r="570" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B570" s="5"/>
       <c r="T570" s="6"/>
     </row>
-    <row r="571" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B571" s="5"/>
       <c r="T571" s="6"/>
     </row>
-    <row r="572" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B572" s="7"/>
       <c r="C572" s="8"/>
       <c r="D572" s="8"/>
@@ -5357,7 +5160,7 @@
       <c r="S572" s="8"/>
       <c r="T572" s="9"/>
     </row>
-    <row r="575" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B575" s="2"/>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -5378,271 +5181,271 @@
       <c r="S575" s="3"/>
       <c r="T575" s="4"/>
     </row>
-    <row r="576" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B576" s="5"/>
       <c r="T576" s="6"/>
     </row>
-    <row r="577" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B577" s="5"/>
       <c r="T577" s="6"/>
     </row>
-    <row r="578" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B578" s="5"/>
       <c r="T578" s="6"/>
     </row>
-    <row r="579" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B579" s="5"/>
       <c r="T579" s="6"/>
     </row>
-    <row r="580" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B580" s="5"/>
       <c r="T580" s="6"/>
     </row>
-    <row r="581" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B581" s="5"/>
       <c r="T581" s="6"/>
     </row>
-    <row r="582" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B582" s="5"/>
       <c r="T582" s="6"/>
     </row>
-    <row r="583" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B583" s="5"/>
       <c r="T583" s="6"/>
     </row>
-    <row r="584" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B584" s="5"/>
       <c r="T584" s="6"/>
     </row>
-    <row r="585" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B585" s="5"/>
       <c r="T585" s="6"/>
     </row>
-    <row r="586" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B586" s="5"/>
       <c r="T586" s="6"/>
     </row>
-    <row r="587" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B587" s="5"/>
       <c r="T587" s="6"/>
     </row>
-    <row r="588" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B588" s="5"/>
       <c r="T588" s="6"/>
     </row>
-    <row r="589" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B589" s="5"/>
       <c r="T589" s="6"/>
     </row>
-    <row r="590" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B590" s="5"/>
       <c r="T590" s="6"/>
     </row>
-    <row r="591" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B591" s="5"/>
       <c r="T591" s="6"/>
     </row>
-    <row r="592" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B592" s="5"/>
       <c r="T592" s="6"/>
     </row>
-    <row r="593" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B593" s="5"/>
       <c r="T593" s="6"/>
     </row>
-    <row r="594" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B594" s="5"/>
       <c r="T594" s="6"/>
     </row>
-    <row r="595" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B595" s="5"/>
       <c r="T595" s="6"/>
     </row>
-    <row r="596" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B596" s="5"/>
       <c r="T596" s="6"/>
     </row>
-    <row r="597" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B597" s="5"/>
       <c r="T597" s="6"/>
     </row>
-    <row r="598" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B598" s="5"/>
       <c r="T598" s="6"/>
     </row>
-    <row r="599" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B599" s="5"/>
       <c r="T599" s="6"/>
     </row>
-    <row r="600" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B600" s="5"/>
       <c r="T600" s="6"/>
     </row>
-    <row r="601" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B601" s="5"/>
       <c r="T601" s="6"/>
     </row>
-    <row r="602" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B602" s="5"/>
       <c r="T602" s="6"/>
     </row>
-    <row r="603" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B603" s="5"/>
       <c r="T603" s="6"/>
     </row>
-    <row r="604" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B604" s="5"/>
       <c r="T604" s="6"/>
     </row>
-    <row r="605" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B605" s="5"/>
       <c r="T605" s="6"/>
     </row>
-    <row r="606" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B606" s="5"/>
       <c r="T606" s="6"/>
     </row>
-    <row r="607" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B607" s="5"/>
       <c r="T607" s="6"/>
     </row>
-    <row r="608" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B608" s="5"/>
       <c r="T608" s="6"/>
     </row>
-    <row r="609" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B609" s="5"/>
       <c r="T609" s="6"/>
     </row>
-    <row r="610" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B610" s="5"/>
       <c r="T610" s="6"/>
     </row>
-    <row r="611" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B611" s="5"/>
       <c r="T611" s="6"/>
     </row>
-    <row r="612" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B612" s="5"/>
       <c r="T612" s="6"/>
     </row>
-    <row r="613" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B613" s="5"/>
       <c r="T613" s="6"/>
     </row>
-    <row r="614" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B614" s="5"/>
       <c r="T614" s="6"/>
     </row>
-    <row r="615" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B615" s="5"/>
       <c r="T615" s="6"/>
     </row>
-    <row r="616" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B616" s="5"/>
       <c r="T616" s="6"/>
     </row>
-    <row r="617" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B617" s="5"/>
       <c r="T617" s="6"/>
     </row>
-    <row r="618" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B618" s="5"/>
       <c r="T618" s="6"/>
     </row>
-    <row r="619" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B619" s="5"/>
       <c r="T619" s="6"/>
     </row>
-    <row r="620" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B620" s="5"/>
       <c r="T620" s="6"/>
     </row>
-    <row r="621" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B621" s="5"/>
       <c r="T621" s="6"/>
     </row>
-    <row r="622" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B622" s="5"/>
       <c r="T622" s="6"/>
     </row>
-    <row r="623" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B623" s="5"/>
       <c r="T623" s="6"/>
     </row>
-    <row r="624" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B624" s="5"/>
       <c r="T624" s="6"/>
     </row>
-    <row r="625" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B625" s="5"/>
       <c r="T625" s="6"/>
     </row>
-    <row r="626" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B626" s="5"/>
       <c r="T626" s="6"/>
     </row>
-    <row r="627" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B627" s="5"/>
       <c r="T627" s="6"/>
     </row>
-    <row r="628" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B628" s="5"/>
       <c r="T628" s="6"/>
     </row>
-    <row r="629" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B629" s="5"/>
       <c r="T629" s="6"/>
     </row>
-    <row r="630" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B630" s="5"/>
       <c r="T630" s="6"/>
     </row>
-    <row r="631" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B631" s="5"/>
       <c r="T631" s="6"/>
     </row>
-    <row r="632" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B632" s="5"/>
       <c r="T632" s="6"/>
     </row>
-    <row r="633" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B633" s="5"/>
       <c r="T633" s="6"/>
     </row>
-    <row r="634" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B634" s="5"/>
       <c r="T634" s="6"/>
     </row>
-    <row r="635" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B635" s="5"/>
       <c r="T635" s="6"/>
     </row>
-    <row r="636" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B636" s="5"/>
       <c r="T636" s="6"/>
     </row>
-    <row r="637" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B637" s="5"/>
       <c r="T637" s="6"/>
     </row>
-    <row r="638" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B638" s="5"/>
       <c r="T638" s="6"/>
     </row>
-    <row r="639" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B639" s="5"/>
       <c r="T639" s="6"/>
     </row>
-    <row r="640" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B640" s="5"/>
       <c r="T640" s="6"/>
     </row>
-    <row r="641" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B641" s="5"/>
       <c r="T641" s="6"/>
     </row>
-    <row r="642" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B642" s="7"/>
       <c r="C642" s="8"/>
       <c r="D642" s="8"/>
@@ -5663,7 +5466,7 @@
       <c r="S642" s="8"/>
       <c r="T642" s="9"/>
     </row>
-    <row r="645" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B645" s="2"/>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -5684,223 +5487,223 @@
       <c r="S645" s="3"/>
       <c r="T645" s="4"/>
     </row>
-    <row r="646" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B646" s="5"/>
       <c r="T646" s="6"/>
     </row>
-    <row r="647" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B647" s="5"/>
       <c r="T647" s="6"/>
     </row>
-    <row r="648" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B648" s="5"/>
       <c r="T648" s="6"/>
     </row>
-    <row r="649" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B649" s="5"/>
       <c r="T649" s="6"/>
     </row>
-    <row r="650" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B650" s="5"/>
       <c r="T650" s="6"/>
     </row>
-    <row r="651" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B651" s="5"/>
       <c r="T651" s="6"/>
     </row>
-    <row r="652" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B652" s="5"/>
       <c r="T652" s="6"/>
     </row>
-    <row r="653" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B653" s="5"/>
       <c r="T653" s="6"/>
     </row>
-    <row r="654" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B654" s="5"/>
       <c r="T654" s="6"/>
     </row>
-    <row r="655" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B655" s="5"/>
       <c r="T655" s="6"/>
     </row>
-    <row r="656" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B656" s="5"/>
       <c r="T656" s="6"/>
     </row>
-    <row r="657" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B657" s="5"/>
       <c r="T657" s="6"/>
     </row>
-    <row r="658" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B658" s="5"/>
       <c r="T658" s="6"/>
     </row>
-    <row r="659" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B659" s="5"/>
       <c r="T659" s="6"/>
     </row>
-    <row r="660" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B660" s="5"/>
       <c r="T660" s="6"/>
     </row>
-    <row r="661" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B661" s="5"/>
       <c r="T661" s="6"/>
     </row>
-    <row r="662" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B662" s="5"/>
       <c r="T662" s="6"/>
     </row>
-    <row r="663" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B663" s="5"/>
       <c r="T663" s="6"/>
     </row>
-    <row r="664" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B664" s="5"/>
       <c r="T664" s="6"/>
     </row>
-    <row r="665" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B665" s="5"/>
       <c r="T665" s="6"/>
     </row>
-    <row r="666" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B666" s="5"/>
       <c r="T666" s="6"/>
     </row>
-    <row r="667" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B667" s="5"/>
       <c r="T667" s="6"/>
     </row>
-    <row r="668" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B668" s="5"/>
       <c r="T668" s="6"/>
     </row>
-    <row r="669" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B669" s="5"/>
       <c r="T669" s="6"/>
     </row>
-    <row r="670" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B670" s="5"/>
       <c r="T670" s="6"/>
     </row>
-    <row r="671" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B671" s="5"/>
       <c r="T671" s="6"/>
     </row>
-    <row r="672" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B672" s="5"/>
       <c r="T672" s="6"/>
     </row>
-    <row r="673" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B673" s="5"/>
       <c r="T673" s="6"/>
     </row>
-    <row r="674" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B674" s="5"/>
       <c r="T674" s="6"/>
     </row>
-    <row r="675" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B675" s="5"/>
       <c r="T675" s="6"/>
     </row>
-    <row r="676" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B676" s="5"/>
       <c r="T676" s="6"/>
     </row>
-    <row r="677" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B677" s="5"/>
       <c r="T677" s="6"/>
     </row>
-    <row r="678" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B678" s="5"/>
       <c r="T678" s="6"/>
     </row>
-    <row r="679" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B679" s="5"/>
       <c r="T679" s="6"/>
     </row>
-    <row r="680" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B680" s="5"/>
       <c r="T680" s="6"/>
     </row>
-    <row r="681" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B681" s="5"/>
       <c r="T681" s="6"/>
     </row>
-    <row r="682" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B682" s="5"/>
       <c r="T682" s="6"/>
     </row>
-    <row r="683" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B683" s="5"/>
       <c r="T683" s="6"/>
     </row>
-    <row r="684" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B684" s="5"/>
       <c r="T684" s="6"/>
     </row>
-    <row r="685" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B685" s="5"/>
       <c r="T685" s="6"/>
     </row>
-    <row r="686" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B686" s="5"/>
       <c r="T686" s="6"/>
     </row>
-    <row r="687" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B687" s="5"/>
       <c r="T687" s="6"/>
     </row>
-    <row r="688" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B688" s="5"/>
       <c r="T688" s="6"/>
     </row>
-    <row r="689" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B689" s="5"/>
       <c r="T689" s="6"/>
     </row>
-    <row r="690" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B690" s="5"/>
       <c r="T690" s="6"/>
     </row>
-    <row r="691" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B691" s="5"/>
       <c r="T691" s="6"/>
     </row>
-    <row r="692" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B692" s="5"/>
       <c r="T692" s="6"/>
     </row>
-    <row r="693" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B693" s="5"/>
       <c r="T693" s="6"/>
     </row>
-    <row r="694" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B694" s="5"/>
       <c r="T694" s="6"/>
     </row>
-    <row r="695" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B695" s="5"/>
       <c r="T695" s="6"/>
     </row>
-    <row r="696" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B696" s="5"/>
       <c r="T696" s="6"/>
     </row>
-    <row r="697" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B697" s="5"/>
       <c r="T697" s="6"/>
     </row>
-    <row r="698" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B698" s="5"/>
       <c r="T698" s="6"/>
     </row>
-    <row r="699" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B699" s="5"/>
       <c r="T699" s="6"/>
     </row>
-    <row r="700" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B700" s="7"/>
       <c r="C700" s="8"/>
       <c r="D700" s="8"/>
@@ -5921,7 +5724,7 @@
       <c r="S700" s="8"/>
       <c r="T700" s="9"/>
     </row>
-    <row r="702" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B702" s="2"/>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -5942,251 +5745,251 @@
       <c r="S702" s="3"/>
       <c r="T702" s="4"/>
     </row>
-    <row r="703" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B703" s="5"/>
       <c r="T703" s="6"/>
     </row>
-    <row r="704" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B704" s="5"/>
       <c r="T704" s="6"/>
     </row>
-    <row r="705" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B705" s="5"/>
       <c r="T705" s="6"/>
     </row>
-    <row r="706" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B706" s="5"/>
       <c r="T706" s="6"/>
     </row>
-    <row r="707" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B707" s="5"/>
       <c r="T707" s="6"/>
     </row>
-    <row r="708" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B708" s="5"/>
       <c r="T708" s="6"/>
     </row>
-    <row r="709" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B709" s="5"/>
       <c r="T709" s="6"/>
     </row>
-    <row r="710" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B710" s="5"/>
       <c r="T710" s="6"/>
     </row>
-    <row r="711" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B711" s="5"/>
       <c r="T711" s="6"/>
     </row>
-    <row r="712" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B712" s="5"/>
       <c r="T712" s="6"/>
     </row>
-    <row r="713" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B713" s="5"/>
       <c r="T713" s="6"/>
     </row>
-    <row r="714" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B714" s="5"/>
       <c r="T714" s="6"/>
     </row>
-    <row r="715" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B715" s="5"/>
       <c r="T715" s="6"/>
     </row>
-    <row r="716" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B716" s="5"/>
       <c r="T716" s="6"/>
     </row>
-    <row r="717" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B717" s="5"/>
       <c r="T717" s="6"/>
     </row>
-    <row r="718" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B718" s="5"/>
       <c r="T718" s="6"/>
     </row>
-    <row r="719" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B719" s="5"/>
       <c r="T719" s="6"/>
     </row>
-    <row r="720" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B720" s="5"/>
       <c r="T720" s="6"/>
     </row>
-    <row r="721" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B721" s="5"/>
       <c r="T721" s="6"/>
     </row>
-    <row r="722" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B722" s="5"/>
       <c r="T722" s="6"/>
     </row>
-    <row r="723" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B723" s="5"/>
       <c r="T723" s="6"/>
     </row>
-    <row r="724" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B724" s="5"/>
       <c r="T724" s="6"/>
     </row>
-    <row r="725" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B725" s="5"/>
       <c r="T725" s="6"/>
     </row>
-    <row r="726" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B726" s="5"/>
       <c r="T726" s="6"/>
     </row>
-    <row r="727" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B727" s="5"/>
       <c r="T727" s="6"/>
     </row>
-    <row r="728" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B728" s="5"/>
       <c r="T728" s="6"/>
     </row>
-    <row r="729" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B729" s="5"/>
       <c r="T729" s="6"/>
     </row>
-    <row r="730" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B730" s="5"/>
       <c r="T730" s="6"/>
     </row>
-    <row r="731" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B731" s="5"/>
       <c r="T731" s="6"/>
     </row>
-    <row r="732" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B732" s="5"/>
       <c r="T732" s="6"/>
     </row>
-    <row r="733" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B733" s="5"/>
       <c r="T733" s="6"/>
     </row>
-    <row r="734" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B734" s="5"/>
       <c r="T734" s="6"/>
     </row>
-    <row r="735" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B735" s="5"/>
       <c r="T735" s="6"/>
     </row>
-    <row r="736" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B736" s="5"/>
       <c r="T736" s="6"/>
     </row>
-    <row r="737" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B737" s="5"/>
       <c r="T737" s="6"/>
     </row>
-    <row r="738" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B738" s="5"/>
       <c r="T738" s="6"/>
     </row>
-    <row r="739" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B739" s="5"/>
       <c r="T739" s="6"/>
     </row>
-    <row r="740" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B740" s="5"/>
       <c r="T740" s="6"/>
     </row>
-    <row r="741" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B741" s="5"/>
       <c r="T741" s="6"/>
     </row>
-    <row r="742" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B742" s="5"/>
       <c r="T742" s="6"/>
     </row>
-    <row r="743" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B743" s="5"/>
       <c r="T743" s="6"/>
     </row>
-    <row r="744" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B744" s="5"/>
       <c r="T744" s="6"/>
     </row>
-    <row r="745" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B745" s="5"/>
       <c r="T745" s="6"/>
     </row>
-    <row r="746" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B746" s="5"/>
       <c r="T746" s="6"/>
     </row>
-    <row r="747" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B747" s="5"/>
       <c r="T747" s="6"/>
     </row>
-    <row r="748" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B748" s="5"/>
       <c r="T748" s="6"/>
     </row>
-    <row r="749" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B749" s="5"/>
       <c r="T749" s="6"/>
     </row>
-    <row r="750" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B750" s="5"/>
       <c r="T750" s="6"/>
     </row>
-    <row r="751" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B751" s="5"/>
       <c r="T751" s="6"/>
     </row>
-    <row r="752" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B752" s="5"/>
       <c r="T752" s="6"/>
     </row>
-    <row r="753" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B753" s="5"/>
       <c r="T753" s="6"/>
     </row>
-    <row r="754" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B754" s="5"/>
       <c r="T754" s="6"/>
     </row>
-    <row r="755" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B755" s="5"/>
       <c r="T755" s="6"/>
     </row>
-    <row r="756" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B756" s="5"/>
       <c r="T756" s="6"/>
     </row>
-    <row r="757" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B757" s="5"/>
       <c r="T757" s="6"/>
     </row>
-    <row r="758" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B758" s="5"/>
       <c r="T758" s="6"/>
     </row>
-    <row r="759" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B759" s="5"/>
       <c r="T759" s="6"/>
     </row>
-    <row r="760" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B760" s="5"/>
       <c r="T760" s="6"/>
     </row>
-    <row r="761" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B761" s="5"/>
       <c r="T761" s="6"/>
     </row>
-    <row r="762" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B762" s="5"/>
       <c r="T762" s="6"/>
     </row>
-    <row r="763" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B763" s="5"/>
       <c r="T763" s="6"/>
     </row>
-    <row r="764" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B764" s="7"/>
       <c r="C764" s="8"/>
       <c r="D764" s="8"/>
@@ -6207,7 +6010,7 @@
       <c r="S764" s="8"/>
       <c r="T764" s="9"/>
     </row>
-    <row r="767" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B767" s="2"/>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -6228,455 +6031,455 @@
       <c r="S767" s="3"/>
       <c r="T767" s="4"/>
     </row>
-    <row r="768" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B768" s="5"/>
       <c r="T768" s="6"/>
     </row>
-    <row r="769" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B769" s="5"/>
       <c r="T769" s="6"/>
     </row>
-    <row r="770" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B770" s="5"/>
       <c r="T770" s="6"/>
     </row>
-    <row r="771" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B771" s="5"/>
       <c r="T771" s="6"/>
     </row>
-    <row r="772" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B772" s="5"/>
       <c r="T772" s="6"/>
     </row>
-    <row r="773" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B773" s="5"/>
       <c r="T773" s="6"/>
     </row>
-    <row r="774" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B774" s="5"/>
       <c r="T774" s="6"/>
     </row>
-    <row r="775" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B775" s="5"/>
       <c r="T775" s="6"/>
     </row>
-    <row r="776" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B776" s="5"/>
       <c r="T776" s="6"/>
     </row>
-    <row r="777" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B777" s="5"/>
       <c r="T777" s="6"/>
     </row>
-    <row r="778" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B778" s="5"/>
       <c r="T778" s="6"/>
     </row>
-    <row r="779" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B779" s="5"/>
       <c r="T779" s="6"/>
     </row>
-    <row r="780" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B780" s="5"/>
       <c r="T780" s="6"/>
     </row>
-    <row r="781" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B781" s="5"/>
       <c r="T781" s="6"/>
     </row>
-    <row r="782" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B782" s="5"/>
       <c r="T782" s="6"/>
     </row>
-    <row r="783" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B783" s="5"/>
       <c r="T783" s="6"/>
     </row>
-    <row r="784" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B784" s="5"/>
       <c r="T784" s="6"/>
     </row>
-    <row r="785" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B785" s="5"/>
       <c r="T785" s="6"/>
     </row>
-    <row r="786" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B786" s="5"/>
       <c r="T786" s="6"/>
     </row>
-    <row r="787" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B787" s="5"/>
       <c r="T787" s="6"/>
     </row>
-    <row r="788" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B788" s="5"/>
       <c r="T788" s="6"/>
     </row>
-    <row r="789" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B789" s="5"/>
       <c r="T789" s="6"/>
     </row>
-    <row r="790" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B790" s="5"/>
       <c r="T790" s="6"/>
     </row>
-    <row r="791" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B791" s="5"/>
       <c r="T791" s="6"/>
     </row>
-    <row r="792" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B792" s="5"/>
       <c r="T792" s="6"/>
     </row>
-    <row r="793" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B793" s="5"/>
       <c r="T793" s="6"/>
     </row>
-    <row r="794" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B794" s="5"/>
       <c r="T794" s="6"/>
     </row>
-    <row r="795" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B795" s="5"/>
       <c r="T795" s="6"/>
     </row>
-    <row r="796" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B796" s="5"/>
       <c r="T796" s="6"/>
     </row>
-    <row r="797" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B797" s="5"/>
       <c r="T797" s="6"/>
     </row>
-    <row r="798" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B798" s="5"/>
       <c r="T798" s="6"/>
     </row>
-    <row r="799" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B799" s="5"/>
       <c r="T799" s="6"/>
     </row>
-    <row r="800" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B800" s="5"/>
       <c r="T800" s="6"/>
     </row>
-    <row r="801" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B801" s="5"/>
       <c r="T801" s="6"/>
     </row>
-    <row r="802" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B802" s="5"/>
       <c r="T802" s="6"/>
     </row>
-    <row r="803" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B803" s="5"/>
       <c r="T803" s="6"/>
     </row>
-    <row r="804" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B804" s="5"/>
       <c r="T804" s="6"/>
     </row>
-    <row r="805" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B805" s="5"/>
       <c r="T805" s="6"/>
     </row>
-    <row r="806" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B806" s="5"/>
       <c r="T806" s="6"/>
     </row>
-    <row r="807" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B807" s="5"/>
       <c r="T807" s="6"/>
     </row>
-    <row r="808" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B808" s="5"/>
       <c r="T808" s="6"/>
     </row>
-    <row r="809" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B809" s="5"/>
       <c r="T809" s="6"/>
     </row>
-    <row r="810" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B810" s="5"/>
       <c r="T810" s="6"/>
     </row>
-    <row r="811" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B811" s="5"/>
       <c r="T811" s="6"/>
     </row>
-    <row r="812" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B812" s="5"/>
       <c r="T812" s="6"/>
     </row>
-    <row r="813" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B813" s="5"/>
       <c r="T813" s="6"/>
     </row>
-    <row r="814" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B814" s="5"/>
       <c r="T814" s="6"/>
     </row>
-    <row r="815" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B815" s="5"/>
       <c r="T815" s="6"/>
     </row>
-    <row r="816" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B816" s="5"/>
       <c r="T816" s="6"/>
     </row>
-    <row r="817" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B817" s="5"/>
       <c r="T817" s="6"/>
     </row>
-    <row r="818" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B818" s="5"/>
       <c r="T818" s="6"/>
     </row>
-    <row r="819" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B819" s="5"/>
       <c r="T819" s="6"/>
     </row>
-    <row r="820" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B820" s="5"/>
       <c r="T820" s="6"/>
     </row>
-    <row r="821" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B821" s="5"/>
       <c r="T821" s="6"/>
     </row>
-    <row r="822" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B822" s="5"/>
       <c r="T822" s="6"/>
     </row>
-    <row r="823" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B823" s="5"/>
       <c r="T823" s="6"/>
     </row>
-    <row r="824" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B824" s="5"/>
       <c r="T824" s="6"/>
     </row>
-    <row r="825" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B825" s="5"/>
       <c r="T825" s="6"/>
     </row>
-    <row r="826" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B826" s="5"/>
       <c r="T826" s="6"/>
     </row>
-    <row r="827" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B827" s="5"/>
       <c r="T827" s="6"/>
     </row>
-    <row r="828" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B828" s="5"/>
       <c r="T828" s="6"/>
     </row>
-    <row r="829" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B829" s="5"/>
       <c r="T829" s="6"/>
     </row>
-    <row r="830" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B830" s="5"/>
       <c r="T830" s="6"/>
     </row>
-    <row r="831" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B831" s="5"/>
       <c r="T831" s="6"/>
     </row>
-    <row r="832" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B832" s="5"/>
       <c r="T832" s="6"/>
     </row>
-    <row r="833" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B833" s="5"/>
       <c r="T833" s="6"/>
     </row>
-    <row r="834" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B834" s="5"/>
       <c r="T834" s="6"/>
     </row>
-    <row r="835" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B835" s="5"/>
       <c r="T835" s="6"/>
     </row>
-    <row r="836" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B836" s="5"/>
       <c r="T836" s="6"/>
     </row>
-    <row r="837" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B837" s="5"/>
       <c r="T837" s="6"/>
     </row>
-    <row r="838" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B838" s="5"/>
       <c r="T838" s="6"/>
     </row>
-    <row r="839" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B839" s="5"/>
       <c r="T839" s="6"/>
     </row>
-    <row r="840" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B840" s="5"/>
       <c r="T840" s="6"/>
     </row>
-    <row r="841" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B841" s="5"/>
       <c r="T841" s="6"/>
     </row>
-    <row r="842" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B842" s="5"/>
       <c r="T842" s="6"/>
     </row>
-    <row r="843" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B843" s="5"/>
       <c r="T843" s="6"/>
     </row>
-    <row r="844" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B844" s="5"/>
       <c r="T844" s="6"/>
     </row>
-    <row r="845" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B845" s="5"/>
       <c r="T845" s="6"/>
     </row>
-    <row r="846" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B846" s="5"/>
       <c r="T846" s="6"/>
     </row>
-    <row r="847" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B847" s="5"/>
       <c r="T847" s="6"/>
     </row>
-    <row r="848" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B848" s="5"/>
       <c r="T848" s="6"/>
     </row>
-    <row r="849" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B849" s="5"/>
       <c r="T849" s="6"/>
     </row>
-    <row r="850" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B850" s="5"/>
       <c r="T850" s="6"/>
     </row>
-    <row r="851" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B851" s="5"/>
       <c r="T851" s="6"/>
     </row>
-    <row r="852" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B852" s="5"/>
       <c r="T852" s="6"/>
     </row>
-    <row r="853" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B853" s="5"/>
       <c r="T853" s="6"/>
     </row>
-    <row r="854" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B854" s="5"/>
       <c r="T854" s="6"/>
     </row>
-    <row r="855" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B855" s="5"/>
       <c r="T855" s="6"/>
     </row>
-    <row r="856" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B856" s="5"/>
       <c r="T856" s="6"/>
     </row>
-    <row r="857" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B857" s="5"/>
       <c r="T857" s="6"/>
     </row>
-    <row r="858" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B858" s="5"/>
       <c r="T858" s="6"/>
     </row>
-    <row r="859" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B859" s="5"/>
       <c r="T859" s="6"/>
     </row>
-    <row r="860" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B860" s="5"/>
       <c r="T860" s="6"/>
     </row>
-    <row r="861" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B861" s="5"/>
       <c r="T861" s="6"/>
     </row>
-    <row r="862" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B862" s="5"/>
       <c r="T862" s="6"/>
     </row>
-    <row r="863" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B863" s="5"/>
       <c r="T863" s="6"/>
     </row>
-    <row r="864" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B864" s="5"/>
       <c r="T864" s="6"/>
     </row>
-    <row r="865" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B865" s="5"/>
       <c r="T865" s="6"/>
     </row>
-    <row r="866" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B866" s="5"/>
       <c r="T866" s="6"/>
     </row>
-    <row r="867" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B867" s="5"/>
       <c r="T867" s="6"/>
     </row>
-    <row r="868" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B868" s="5"/>
       <c r="T868" s="6"/>
     </row>
-    <row r="869" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B869" s="5"/>
       <c r="T869" s="6"/>
     </row>
-    <row r="870" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B870" s="5"/>
       <c r="T870" s="6"/>
     </row>
-    <row r="871" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B871" s="5"/>
       <c r="T871" s="6"/>
     </row>
-    <row r="872" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B872" s="5"/>
       <c r="T872" s="6"/>
     </row>
-    <row r="873" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B873" s="5"/>
       <c r="T873" s="6"/>
     </row>
-    <row r="874" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B874" s="5"/>
       <c r="T874" s="6"/>
     </row>
-    <row r="875" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B875" s="5"/>
       <c r="T875" s="6"/>
     </row>
-    <row r="876" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B876" s="5"/>
       <c r="T876" s="6"/>
     </row>
-    <row r="877" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B877" s="5"/>
       <c r="T877" s="6"/>
     </row>
-    <row r="878" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B878" s="5"/>
       <c r="T878" s="6"/>
     </row>
-    <row r="879" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B879" s="5"/>
       <c r="T879" s="6"/>
     </row>
-    <row r="880" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B880" s="7"/>
       <c r="C880" s="8"/>
       <c r="D880" s="8"/>
@@ -6697,7 +6500,7 @@
       <c r="S880" s="8"/>
       <c r="T880" s="9"/>
     </row>
-    <row r="883" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B883" s="10" t="s">
         <v>1</v>
       </c>
@@ -6720,239 +6523,239 @@
       <c r="S883" s="3"/>
       <c r="T883" s="4"/>
     </row>
-    <row r="884" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B884" s="5"/>
       <c r="T884" s="6"/>
     </row>
-    <row r="885" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B885" s="5"/>
       <c r="T885" s="6"/>
     </row>
-    <row r="886" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B886" s="5"/>
       <c r="T886" s="6"/>
     </row>
-    <row r="887" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B887" s="5"/>
       <c r="T887" s="6"/>
     </row>
-    <row r="888" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B888" s="5"/>
       <c r="T888" s="6"/>
     </row>
-    <row r="889" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B889" s="5"/>
       <c r="T889" s="6"/>
     </row>
-    <row r="890" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B890" s="5"/>
       <c r="T890" s="6"/>
     </row>
-    <row r="891" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B891" s="5"/>
       <c r="T891" s="6"/>
     </row>
-    <row r="892" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B892" s="5"/>
       <c r="T892" s="6"/>
     </row>
-    <row r="893" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B893" s="5"/>
       <c r="T893" s="6"/>
     </row>
-    <row r="894" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B894" s="5"/>
       <c r="T894" s="6"/>
     </row>
-    <row r="895" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B895" s="5"/>
       <c r="T895" s="6"/>
     </row>
-    <row r="896" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B896" s="5"/>
       <c r="T896" s="6"/>
     </row>
-    <row r="897" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B897" s="5"/>
       <c r="T897" s="6"/>
     </row>
-    <row r="898" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B898" s="5"/>
       <c r="T898" s="6"/>
     </row>
-    <row r="899" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B899" s="5"/>
       <c r="T899" s="6"/>
     </row>
-    <row r="900" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B900" s="5"/>
       <c r="T900" s="6"/>
     </row>
-    <row r="901" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B901" s="5"/>
       <c r="T901" s="6"/>
     </row>
-    <row r="902" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B902" s="5"/>
       <c r="T902" s="6"/>
     </row>
-    <row r="903" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B903" s="5"/>
       <c r="T903" s="6"/>
     </row>
-    <row r="904" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B904" s="5"/>
       <c r="T904" s="6"/>
     </row>
-    <row r="905" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B905" s="5"/>
       <c r="T905" s="6"/>
     </row>
-    <row r="906" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B906" s="5"/>
       <c r="T906" s="6"/>
     </row>
-    <row r="907" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B907" s="5"/>
       <c r="T907" s="6"/>
     </row>
-    <row r="908" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B908" s="5"/>
       <c r="T908" s="6"/>
     </row>
-    <row r="909" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B909" s="5"/>
       <c r="T909" s="6"/>
     </row>
-    <row r="910" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B910" s="5"/>
       <c r="T910" s="6"/>
     </row>
-    <row r="911" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B911" s="5"/>
       <c r="T911" s="6"/>
     </row>
-    <row r="912" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B912" s="5"/>
       <c r="T912" s="6"/>
     </row>
-    <row r="913" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B913" s="5"/>
       <c r="T913" s="6"/>
     </row>
-    <row r="914" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B914" s="5"/>
       <c r="T914" s="6"/>
     </row>
-    <row r="915" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B915" s="5"/>
       <c r="T915" s="6"/>
     </row>
-    <row r="916" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B916" s="5"/>
       <c r="T916" s="6"/>
     </row>
-    <row r="917" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B917" s="5"/>
       <c r="T917" s="6"/>
     </row>
-    <row r="918" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B918" s="5"/>
       <c r="T918" s="6"/>
     </row>
-    <row r="919" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B919" s="5"/>
       <c r="T919" s="6"/>
     </row>
-    <row r="920" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B920" s="5"/>
       <c r="T920" s="6"/>
     </row>
-    <row r="921" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B921" s="5"/>
       <c r="T921" s="6"/>
     </row>
-    <row r="922" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B922" s="5"/>
       <c r="T922" s="6"/>
     </row>
-    <row r="923" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B923" s="5"/>
       <c r="T923" s="6"/>
     </row>
-    <row r="924" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B924" s="5"/>
       <c r="T924" s="6"/>
     </row>
-    <row r="925" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B925" s="5"/>
       <c r="T925" s="6"/>
     </row>
-    <row r="926" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B926" s="5"/>
       <c r="T926" s="6"/>
     </row>
-    <row r="927" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B927" s="5"/>
       <c r="T927" s="6"/>
     </row>
-    <row r="928" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B928" s="5"/>
       <c r="T928" s="6"/>
     </row>
-    <row r="929" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B929" s="5"/>
       <c r="T929" s="6"/>
     </row>
-    <row r="930" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B930" s="5"/>
       <c r="T930" s="6"/>
     </row>
-    <row r="931" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B931" s="5"/>
       <c r="T931" s="6"/>
     </row>
-    <row r="932" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B932" s="5"/>
       <c r="T932" s="6"/>
     </row>
-    <row r="933" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B933" s="5"/>
       <c r="T933" s="6"/>
     </row>
-    <row r="934" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B934" s="5"/>
       <c r="T934" s="6"/>
     </row>
-    <row r="935" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B935" s="5"/>
       <c r="T935" s="6"/>
     </row>
-    <row r="936" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B936" s="5"/>
       <c r="T936" s="6"/>
     </row>
-    <row r="937" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B937" s="5"/>
       <c r="T937" s="6"/>
     </row>
-    <row r="938" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B938" s="5"/>
       <c r="T938" s="6"/>
     </row>
-    <row r="939" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B939" s="5"/>
       <c r="T939" s="6"/>
     </row>
-    <row r="940" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B940" s="5"/>
       <c r="T940" s="6"/>
     </row>
-    <row r="941" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B941" s="5"/>
       <c r="T941" s="6"/>
     </row>
-    <row r="942" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B942" s="7"/>
       <c r="C942" s="8"/>
       <c r="D942" s="8"/>
